--- a/biology/Médecine/1371_en_santé_et_médecine/1371_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1371_en_santé_et_médecine/1371_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1371_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1371_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1371 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1371_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1371_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>20 février : Gervais Chrétien, Premier médecin du roi Charles V, fonde à Paris le collège Notre-Dame de Bayeux, dit « collège de maître Gervais », voué à l'accueil d'écoliers en théologie et où la présence de boursiers en médecine ne sera attestée qu'à partir de 1377[1].
-Le roi Charles V rectifie et complète les statuts des barbiers de Paris, leur confirmant le droit « de panser […] les plaies qui ne seraient pas mortelles, nonobstant l'opposition des chirurgiens[2] ».
-Le roi Édouard III autorise le chapelain Robert Denton à fonder à Londres, « pour les pauvres prêtres et pour les hommes et les femmes de ladite cité qui tombent soudain en frénésie et perdent la mémoire[3] », un asile connu sous le nom de Berking Church Hospital[4].
-Jean Ocko de Vlasim, archevêque de Prague, fonde un hôpital pour les clercs pauvres sur la colline du Hradschin[5].
-En 1371 au plus tard : Philippe le Hardi, duc de Bourgogne, frère du roi de France Charles V, prend à son service le médecin Jean de Pouilly, maître de la faculté de médecine de Paris[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>20 février : Gervais Chrétien, Premier médecin du roi Charles V, fonde à Paris le collège Notre-Dame de Bayeux, dit « collège de maître Gervais », voué à l'accueil d'écoliers en théologie et où la présence de boursiers en médecine ne sera attestée qu'à partir de 1377.
+Le roi Charles V rectifie et complète les statuts des barbiers de Paris, leur confirmant le droit « de panser […] les plaies qui ne seraient pas mortelles, nonobstant l'opposition des chirurgiens ».
+Le roi Édouard III autorise le chapelain Robert Denton à fonder à Londres, « pour les pauvres prêtres et pour les hommes et les femmes de ladite cité qui tombent soudain en frénésie et perdent la mémoire », un asile connu sous le nom de Berking Church Hospital.
+Jean Ocko de Vlasim, archevêque de Prague, fonde un hôpital pour les clercs pauvres sur la colline du Hradschin.
+En 1371 au plus tard : Philippe le Hardi, duc de Bourgogne, frère du roi de France Charles V, prend à son service le médecin Jean de Pouilly, maître de la faculté de médecine de Paris.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1371_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1371_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Pierre Chartreis, maître ès-arts et licencié en médecine de l'université de Montpellier, rédige une première copie du régime de pestilence (Preservatio pestilentie) de Jean Jacme († 1384) dont le texte, probablement « recueilli de la bouche même du maître, […] a retenu plus particulièrement l'attention des historiens de la médecine[7] ».</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pierre Chartreis, maître ès-arts et licencié en médecine de l'université de Montpellier, rédige une première copie du régime de pestilence (Preservatio pestilentie) de Jean Jacme († 1384) dont le texte, probablement « recueilli de la bouche même du maître, […] a retenu plus particulièrement l'attention des historiens de la médecine ».</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1371_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1371_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1371 : Bernat Sarriera (date de naissance inconnue), chirurgien à Gérone, en Catalogne, médecin du roi Pierre IV d'Aragon, comte de Barcelone[8].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1371 : Bernat Sarriera (date de naissance inconnue), chirurgien à Gérone, en Catalogne, médecin du roi Pierre IV d'Aragon, comte de Barcelone.</t>
         </is>
       </c>
     </row>
